--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="236">
   <si>
     <t>S. No</t>
   </si>
@@ -545,9 +545,6 @@
 Short Code = [];</t>
   </si>
   <si>
-    <t>Check Whether, Able to Supplier Categoy  detail or not in Supplier in Supplier Scree</t>
-  </si>
-  <si>
     <t>Check Whether, Able to Add Test Category  detail or not in  Test Category  Screen</t>
   </si>
   <si>
@@ -585,6 +582,540 @@
   </si>
   <si>
     <t>Check Whether, Able to Add Project Type  detail or not in Project Type Screen</t>
+  </si>
+  <si>
+    <t>PF038</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Supplier  detail or not in Supplier Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Name = [];
+Street = [];
+Door No = [];
+Zip Code = [];
+City Name = [];
+State name = [];
+Country Name = [];
+Telephone No = [];
+Phone No = [];
+Fax = [];
+Email = [];
+Website = [];
+Account No = [];
+Password No = [];
+Description = [];
+Active = [];
+</t>
+  </si>
+  <si>
+    <t>PF039</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Supplier  Contact detail or not in  Supplier Contact Tab to the Supplier Screen</t>
+  </si>
+  <si>
+    <t>Contact Name = [];
+Designation = [];
+Mobile = [];
+Telephone = [];
+Email = [];
+Description = [];</t>
+  </si>
+  <si>
+    <t>PF040</t>
+  </si>
+  <si>
+    <t>Supplier = []
+Supplier Category =[]</t>
+  </si>
+  <si>
+    <t>PF041</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Supplier Category detail or not to the Supplier Category in Supplier Screen</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add material Category detail or not to the material Category in Supplier Screen</t>
+  </si>
+  <si>
+    <t>Supplier = []
+material  Category =[]</t>
+  </si>
+  <si>
+    <t>PF042</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Supplier File detail or not in  Supplier File Tab to the Supplier screen</t>
+  </si>
+  <si>
+    <t>Supplier File Name = [];
+Supplier File Description = [];</t>
+  </si>
+  <si>
+    <t>PF043</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Manufacture  detail or not in Manufacture Screen</t>
+  </si>
+  <si>
+    <t>Manufacture Name = [];
+Manufacture Description = [];
+Manufacture Active = [];</t>
+  </si>
+  <si>
+    <t>PF044</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Manufacture Site detail or not in  Manufacture Site Tab to the Manufacture  Screen</t>
+  </si>
+  <si>
+    <t>PF045</t>
+  </si>
+  <si>
+    <t>PF046</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Manufacture File detail or not in  Manufacture File Tab to the Supplier screen</t>
+  </si>
+  <si>
+    <t>Manufacture File Name = [];
+Manufacture  File Description = [];</t>
+  </si>
+  <si>
+    <t>PF047</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Password Policy detail or not in  Password Policy screen</t>
+  </si>
+  <si>
+    <t>Policy Name = [];
+Minimum # of Numeric character = [];
+Minimum # of Lower Case Character = [];
+Minimum # of Upper Case Character = [];
+Minimum # of Special Character = [];
+Minimum Password Length = [];
+Maximum Password Length = [];
+Failed Password Attempt That Will Lock The Account = [];
+Expiry Policy Required = [];
+Expiry password policy in days = [];
+Alert Password Policy in days = [];
+Comments = [];</t>
+  </si>
+  <si>
+    <t>PF048</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Users detail or not in  Users screen</t>
+  </si>
+  <si>
+    <t>Login ID = [];
+First Name = [];
+Last Name = [];
+Emp Id = [];
+Date of join = [];
+Designation = [];
+Department = [];
+Qualification = [];
+Blood Group = [];
+Job Description = [];
+Address1 = [];
+Address2 = [];
+Address3 = [];
+Country Name = [];
+Email = [];
+Phone No. = [];
+Mobile No. = [];
+Signature File = [];
+User File = [];
+Is Active = [];
+Is Unlock = [];</t>
+  </si>
+  <si>
+    <t>PF049</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Users role  detail or not in  Users Role Tab to the Users Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login ID = [];
+User Role = [];
+Active = [];
+</t>
+  </si>
+  <si>
+    <t>PF050</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Deputy Users  detail or not in Deputy Users Tab to the Users Screen</t>
+  </si>
+  <si>
+    <t>Deputy LoginId = [];
+Deputy User Name = [];
+User Role = [];</t>
+  </si>
+  <si>
+    <t>PF051</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Test Master  detail or not in Test Master Screen</t>
+  </si>
+  <si>
+    <t>Test Category = [];
+Test Name = [];
+Test Abbreviation = [];
+Test Procedure = [];
+Price = [];
+Test Section = [];
+Test Method = [];
+Test Instrument = [];
+Additional Info = [];
+Parameter Name = [];
+Parameter Abbreviation = [];
+Parameter Type = [];
+Rounding Digits = [];
+Unit = [];
+Coded Result = [];
+Actual Result = [];
+Accredited = [];
+Active = [];</t>
+  </si>
+  <si>
+    <t>PF052</t>
+  </si>
+  <si>
+    <t>Parameter Name = [];
+Parameter Abbreviation = [];
+Parameter Type = [];
+Rounding Digits = [];
+Unit = [];
+Coded Result = [];
+Actual Result = [];</t>
+  </si>
+  <si>
+    <t>PF053</t>
+  </si>
+  <si>
+    <t>Test Master = [];
+Section  =[];</t>
+  </si>
+  <si>
+    <t>PF054</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Parameter detail or not in Parameter Tab to the Test Master Screen</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Section detail or not to the Section Tab  in Test master Screen</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Method detail or not to the Method Tab  in Test master Screen</t>
+  </si>
+  <si>
+    <t>Test master = [];
+Method = [];</t>
+  </si>
+  <si>
+    <t>PF055</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Instrument Category detail or not to the Instrument Category Tab  in Test master Screen</t>
+  </si>
+  <si>
+    <t>Test master = [];
+Instrument Category = [];</t>
+  </si>
+  <si>
+    <t>PF056</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add File Attachment detail or not to the file Tab  in Test master Screen</t>
+  </si>
+  <si>
+    <t>File Name = [];
+File Description = [];</t>
+  </si>
+  <si>
+    <t>PF057</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Test Group detail or not  in Test Group Screen</t>
+  </si>
+  <si>
+    <t>Registration Category = [];
+Sample Type = [];
+Sample Category = [];
+Template Version = [];
+Spec Profile = [];
+Specification Name = [];
+Project Id = [];</t>
+  </si>
+  <si>
+    <t>PF058</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Test details or not  in Test details Tab to the Test Group Screen</t>
+  </si>
+  <si>
+    <t>Test Category = [];
+Find Test = [];</t>
+  </si>
+  <si>
+    <t>PF059</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Test Group Material  or not  in Test Group Material  Tab to the Test Group Screen</t>
+  </si>
+  <si>
+    <t>Material Type = [];
+Material Category = [];
+Material = [];
+Remarks = [];</t>
+  </si>
+  <si>
+    <t>PF060</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Specification File  or not  in Specification File Tab to the Test Group Screen</t>
+  </si>
+  <si>
+    <t>File Attachment Type = [];
+File Name = [];
+Description = [];</t>
+  </si>
+  <si>
+    <t>PF061</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Material   or not  in Material  Screen</t>
+  </si>
+  <si>
+    <t>Material Category = [];
+Standard Name = [];
+Basic UOM = [];
+Material Prefix = [];
+Quarantine = [];
+Reorder Level = [];
+Open Expiry = [];   Days = [];
+Next Validation = [];   Days = [];
+Expiry Policy = [];  Days = [];
+Remarks = [];</t>
+  </si>
+  <si>
+    <t>PF062</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Training &amp; Certification   or not  in Training &amp; Certification  Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training Category = [];
+Technique = [];
+Training Topic = [];
+Training Date = [];   Time = [];
+Trainer Name = [];
+Venue = [];
+Comments = [];
+</t>
+  </si>
+  <si>
+    <t>PF063</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Participant details  or not  in participant Tab to theTraining &amp; Certification  Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section Name = [];
+Participants = [];  </t>
+  </si>
+  <si>
+    <t>PF064</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Checklist   or not  in Checklist  Screen</t>
+  </si>
+  <si>
+    <t>CheckList Name = [];
+Checklist Description = [];</t>
+  </si>
+  <si>
+    <t>PF065</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Report Designer   or not  in Report Designer   Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COA  = [];    NON-COA = [];
+Registration Type = [];
+Registration Sub Type = [];
+Section = [];
+COA Report Type = [];
+Type = [];
+IS PLSQL = [];
+Report Name = [];
+File = [];
+</t>
+  </si>
+  <si>
+    <t>PF066</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Sub  Report Details   or not  in Sub report Tab to the  Report Designer   Screen</t>
+  </si>
+  <si>
+    <t>Report Name = [];
+Report File Name = [];</t>
+  </si>
+  <si>
+    <t>PF067</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add  Report Images  Details   or not  in report Images  Tab to the  Report Designer   Screen</t>
+  </si>
+  <si>
+    <t>PF068</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Instrument details   or not  in Instrument    Screen</t>
+  </si>
+  <si>
+    <t>Instrument Category = [];
+Instrument ID = [];
+Instrument Name = [];
+Supplier = [];
+Serial No = [];
+Model Number = [];
+Manufacturer Name = [];
+PO No. = [];
+Manufacture Date = [];
+PO Date = [];
+Received Date = [];
+Installation Date = [];
+Warranty Expiry Date = [];
+Service By = [];
+Section = [];
+In-Charge = [];
+Instrument Status = [];
+Window Period = [];
+Remarks = [];</t>
+  </si>
+  <si>
+    <t>PF069</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Validation  details   or not  in Validation Tab to the Instrument    Screen</t>
+  </si>
+  <si>
+    <t>Instrument ID = [];
+Validation Date = [];
+Status = [];
+Remarks = [];</t>
+  </si>
+  <si>
+    <t>PF070</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Validation File   details   or not  in Validation File Tab to the Instrument    Screen</t>
+  </si>
+  <si>
+    <t>Validation File name = [];
+Validation Description = [];</t>
+  </si>
+  <si>
+    <t>PF071</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add calibration  details   or not  in Calibration  Tab to the Instrument    Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument ID = [];
+Last Calibration  Date = [];
+Due Date = [];
+Status = [];
+</t>
+  </si>
+  <si>
+    <t>PF072</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add calibration  File   details   or not  in Calibration  File Tab to the Instrument    Screen</t>
+  </si>
+  <si>
+    <t>Calibration File name = [];
+Calibration  Description = [];</t>
+  </si>
+  <si>
+    <t>PF073</t>
+  </si>
+  <si>
+    <t>Instrument ID = [];
+Last Maintainance  Date = [];
+Due Date = [];
+Status = [];</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Maintainance  details   or not  in Maintainance  Tab to the Instrument    Screen</t>
+  </si>
+  <si>
+    <t>PF074</t>
+  </si>
+  <si>
+    <t>Maintainance File name = [];
+Maintainance Description = [];</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Maintainance  File details   or not  in Maintainance File Tab to the Instrument    Screen</t>
+  </si>
+  <si>
+    <t>PF075</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Instrument data Log details   or not  in Instrument  Data Log  Screen</t>
+  </si>
+  <si>
+    <t>Instrument Category Name = [];
+Instrument ID = [];
+Instrument Name = [];
+Instrument Start Date = [];   Instrument Start Time = [];
+Instrument End Date = [];    Instrument End Time = [];
+Remarks = [];</t>
+  </si>
+  <si>
+    <t>PF076</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add   File attachment details   or not   in File Attachments to the  Instrument  Data Log  Screen</t>
+  </si>
+  <si>
+    <t>PF077</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Project  details   or not  in Project  Screen</t>
+  </si>
+  <si>
+    <t>Project Type = [];
+Project Name = [];
+Description = [];
+Start Date = [];
+Duration = [];   Months = [];</t>
+  </si>
+  <si>
+    <t>PF078</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Project Members  details   or not  inProject members Details to the  Project  Screen</t>
+  </si>
+  <si>
+    <t>Project members = [];</t>
+  </si>
+  <si>
+    <t>PF079</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Project File attachment  details   or not  in Project Attachment  Details to the  Project  Screen</t>
+  </si>
+  <si>
+    <t>Project File Name = [];
+Project Description = [];</t>
   </si>
 </sst>
 </file>
@@ -666,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,9 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,17 +1500,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="3" max="3" width="109.85546875" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1001,10 +1529,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1015,10 +1543,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1029,10 +1557,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1043,13 +1571,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1057,10 +1585,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.75" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1071,10 +1599,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1085,10 +1613,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1099,10 +1627,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1113,10 +1641,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1127,10 +1655,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="80.25" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1141,10 +1669,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="172.5" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1155,10 +1683,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="99" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1169,10 +1697,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1183,10 +1711,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1197,10 +1725,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1211,10 +1739,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1225,10 +1753,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="46.5" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1239,10 +1767,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1253,10 +1781,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1267,10 +1795,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1281,10 +1809,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1295,10 +1823,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="36" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1309,10 +1837,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1323,10 +1851,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="36" customHeight="1">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1337,195 +1865,774 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="33" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="81" customHeight="1">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36.75" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="6" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="6" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="6" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="6" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="46.5" customHeight="1">
-      <c r="C39" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="D40" s="4"/>
+    <row r="39" spans="1:4" s="6" customFormat="1" ht="252" customHeight="1">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="6" customFormat="1" ht="101.25" customHeight="1">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="6" customFormat="1" ht="48" customHeight="1">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="6" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="6" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="6" customFormat="1" ht="179.25" customHeight="1">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="6" customFormat="1" ht="102" customHeight="1">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="6" customFormat="1" ht="197.25" customHeight="1">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="6" customFormat="1" ht="318" customHeight="1">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="6" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="6" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="6" customFormat="1" ht="274.5" customHeight="1">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="6" customFormat="1" ht="110.25" customHeight="1">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="6" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="6" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="6" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="6" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="6" customFormat="1" ht="115.5" customHeight="1">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="6" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="6" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="6" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="6" customFormat="1" ht="153" customHeight="1">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="6" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="6" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="6" customFormat="1" ht="48" customHeight="1">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="6" customFormat="1" ht="136.5" customHeight="1">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="6" customFormat="1" ht="306" customHeight="1">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="6" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="6" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="6" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="6" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="6" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7215"/>
+    <workbookView windowWidth="19200" windowHeight="7210"/>
   </bookViews>
   <sheets>
     <sheet name="PASSITIVE FLOW" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -44,6 +44,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">User Name = [ </t>
     </r>
     <r>
@@ -98,6 +106,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Unit Name = [ </t>
     </r>
     <r>
@@ -151,28 +167,15 @@
     <t>Check Whether, Able to Add Storage Condition detail or not in Storage Condition screen</t>
   </si>
   <si>
-    <t>PF005</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Storage Location detail or not in Storage Location screen</t>
-  </si>
-  <si>
-    <t>PF006</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Sample Test Comments detail or not in Sample Test Comments screen</t>
-  </si>
-  <si>
-    <t>PF007</t>
-  </si>
-  <si>
-    <t>PF008</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Component detail or not in  Component screen</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Storage Condition name = [</t>
     </r>
     <r>
@@ -180,7 +183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Freeze</t>
@@ -191,7 +194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -201,7 +204,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">;
@@ -213,7 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Storage Condition Description </t>
@@ -223,7 +226,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">= </t>
@@ -234,26 +237,44 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>[]</t>
     </r>
   </si>
   <si>
+    <t>PF005</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Storage Location detail or not in Storage Location screen</t>
+  </si>
+  <si>
     <t>Storage Location name = [];
 Storage LocationDescription = []</t>
   </si>
   <si>
+    <t>PF006</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Sample Test Comments detail or not in Sample Test Comments screen</t>
+  </si>
+  <si>
     <t>Sample Test comments name = [];
 Sample Test Comments description = []</t>
   </si>
   <si>
+    <t>PF007</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Component detail or not in  Component screen</t>
+  </si>
+  <si>
     <t>Component  Name = [  ];
 Component Description = [  ]</t>
   </si>
   <si>
-    <t>PF009</t>
+    <t>PF008</t>
   </si>
   <si>
     <t>Check Whether, Able to Add Country detail or not in  Country screen</t>
@@ -265,7 +286,7 @@
 Three Char.Code = []</t>
   </si>
   <si>
-    <t>PF010</t>
+    <t>PF009</t>
   </si>
   <si>
     <t>Check Whether, Able to Add Client Group detail or not in  Client Group screen</t>
@@ -275,7 +296,7 @@
 Client Group Description = [  ]</t>
   </si>
   <si>
-    <t>PF011</t>
+    <t>PF010</t>
   </si>
   <si>
     <t>Check Whether, Able to Add Client  detail or not in  Client  screen</t>
@@ -286,6 +307,12 @@
 Client Registration No = [];
 Client Description = [];
 Client Active = []</t>
+  </si>
+  <si>
+    <t>PF011</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Client Site detail or not in  Client Site Tab to the Client Screen</t>
   </si>
   <si>
     <t>Site Name = [];
@@ -304,7 +331,7 @@
     <t>PF012</t>
   </si>
   <si>
-    <t>PF013</t>
+    <t>Check Whether, Able to Add Client Contact detail or not in  Client Contact Tab to the Client Screen</t>
   </si>
   <si>
     <t>Contact Name = [];
@@ -315,30 +342,30 @@
 Remarks = [];</t>
   </si>
   <si>
-    <t>PF014</t>
+    <t>PF013</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Client File detail or not in  Client File Tab to the Client screen</t>
   </si>
   <si>
     <t>Client File Name = [];
 Client File Description = [];</t>
   </si>
   <si>
-    <t>PF015</t>
+    <t>PF014</t>
   </si>
   <si>
     <t>Check Whether, Able to Add Supplier Category detail or not in  supplier Category Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Client Site detail or not in  Client Site Tab to the Client Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Client Contact detail or not in  Client Contact Tab to the Client Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Client File detail or not in  Client File Tab to the Client screen</t>
   </si>
   <si>
     <t>Supplier Category Name = [];
 Supplier Category description = []</t>
+  </si>
+  <si>
+    <t>PF015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check Whether, Able to Add Sample Category detail or not in  sample Category Screen</t>
   </si>
   <si>
     <t>Sample Category Name = [];
@@ -349,6 +376,9 @@
     <t>PF016</t>
   </si>
   <si>
+    <t xml:space="preserve"> Check Whether, Able to Add Sample Type detail or not in  sample Type Screen</t>
+  </si>
+  <si>
     <t>sample Category Name = [];
 Sample Type = [];
 sample Description = [];</t>
@@ -357,61 +387,7 @@
     <t>PF017</t>
   </si>
   <si>
-    <t>PF018</t>
-  </si>
-  <si>
-    <t>Sample Port = [];
-Location = [];</t>
-  </si>
-  <si>
-    <t>PF019</t>
-  </si>
-  <si>
-    <t>PF020</t>
-  </si>
-  <si>
-    <t>PF021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check Whether, Able to Add Sample Category detail or not in  sample Category Screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check Whether, Able to Add Sample Type detail or not in  sample Type Screen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Check Whether, Able to Add Sampling Point detail or not in  sampling Point  Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Sampling Port detail or not in  sampling Port  to the sampling point screen</t>
-  </si>
-  <si>
-    <t>Check Whether ,  Able to Add Designation detail or not in  Desination Screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check Whether, Able to Add Designation detail or not in  Desination Screen</t>
-  </si>
-  <si>
-    <t>Check whether the user can able to enable  in approval Flow or either in result Entry flow</t>
-  </si>
-  <si>
-    <t>Approval Flow =[];
-Result entry Flow = [];</t>
-  </si>
-  <si>
-    <t>PF022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check Whether, Able to Add Department detail or not in  Department Screen</t>
-  </si>
-  <si>
-    <t>PF023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check Whether, Able to Add Lab detail or not in  Lab Screen</t>
-  </si>
-  <si>
-    <t>Lab Name = [];
-Lab Description =[];</t>
   </si>
   <si>
     <t>Sample Site = [];
@@ -419,18 +395,66 @@
 Sampling Point Description = [];</t>
   </si>
   <si>
+    <t>PF018</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Sampling Port detail or not in  sampling Port  to the sampling point screen</t>
+  </si>
+  <si>
+    <t>Sample Port = [];
+Location = [];</t>
+  </si>
+  <si>
+    <t>PF019</t>
+  </si>
+  <si>
+    <t>Check Whether ,  Able to Add Designation detail or not in  Desination Screen</t>
+  </si>
+  <si>
     <t>Designation name = [];
 Designation Description = [];</t>
   </si>
   <si>
+    <t>PF020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check Whether, Able to Add Designation detail or not in  Desination Screen</t>
+  </si>
+  <si>
     <t>User Role = [];
 User Role Description = [];</t>
   </si>
   <si>
+    <t>PF021</t>
+  </si>
+  <si>
+    <t>Check whether the user can able to enable  in approval Flow or either in result Entry flow</t>
+  </si>
+  <si>
+    <t>Approval Flow =[];
+Result entry Flow = [];</t>
+  </si>
+  <si>
+    <t>PF022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check Whether, Able to Add Department detail or not in  Department Screen</t>
+  </si>
+  <si>
     <t>Department Name = [];
 Department Description = [];</t>
   </si>
   <si>
+    <t>PF023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check Whether, Able to Add Lab detail or not in  Lab Screen</t>
+  </si>
+  <si>
+    <t>Lab Name = [];
+Lab Description =[];</t>
+  </si>
+  <si>
     <t>PF024</t>
   </si>
   <si>
@@ -444,18 +468,27 @@
     <t>PF025</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add Test Category  detail or not in  Test Category  Screen</t>
+  </si>
+  <si>
+    <t>Test Category Name = [];
+Test Category Description = [];</t>
+  </si>
+  <si>
     <t>PF026</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Method  Category  detail or not in  Method Category  Screen</t>
   </si>
   <si>
     <t>Method Category Name = [];
 Method category Description = [];</t>
   </si>
   <si>
-    <t>Test Category Name = [];
-Test Category Description = [];</t>
-  </si>
-  <si>
     <t>PF027</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Method  detail or not in  Method  Screen</t>
   </si>
   <si>
     <t>Method Category Name = [];
@@ -464,6 +497,9 @@
   </si>
   <si>
     <t>PF028</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Material category  detail or not in  Material category   Screen</t>
   </si>
   <si>
     <t>Material Type Name = [];
@@ -476,6 +512,9 @@
     <t>PF029</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add Material Grade  detail or not in  Material Grade Screen</t>
+  </si>
+  <si>
     <t>Material Grade name = [];
 Material Grade description = [];</t>
   </si>
@@ -483,6 +522,9 @@
     <t>PF030</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add Technique  detail or not in  Technique Screen</t>
+  </si>
+  <si>
     <t>Technique Name = [];
 Technique Description = [];</t>
   </si>
@@ -490,6 +532,9 @@
     <t>PF031</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add  Training Category  detail or not in  Training Category  Screen</t>
+  </si>
+  <si>
     <t>Training Category Name = [];
 Training Category Description = [];</t>
   </si>
@@ -497,11 +542,17 @@
     <t>PF032</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add QB Category  detail or not in  QB  Category  Screen</t>
+  </si>
+  <si>
     <t>QB Category Name = [];
 QB Category Description = [];</t>
   </si>
   <si>
     <t>PF033</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add QB  detail or not in  QB Screen</t>
   </si>
   <si>
     <t>QB Category = [];
@@ -514,11 +565,17 @@
     <t>PF034</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add storage Category  detail or not in Storage category  Screen</t>
+  </si>
+  <si>
     <t>Storage category name = [];
 Storage category Description = [];</t>
   </si>
   <si>
     <t>PF035</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add sample  storage   detail or not in sample Storage  Screen</t>
   </si>
   <si>
     <t>Storage location view = [];
@@ -527,6 +584,9 @@
   </si>
   <si>
     <t>PF036</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Instrument category   detail or not in Instrument category  Screen</t>
   </si>
   <si>
     <t xml:space="preserve">Instrument category name =[];
@@ -541,47 +601,11 @@
     <t>PF037</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add Project Type  detail or not in Project Type Screen</t>
+  </si>
+  <si>
     <t>Project Type = [];
 Short Code = [];</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Test Category  detail or not in  Test Category  Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Method  Category  detail or not in  Method Category  Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Method  detail or not in  Method  Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Material category  detail or not in  Material category   Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Material Grade  detail or not in  Material Grade Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Technique  detail or not in  Technique Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add  Training Category  detail or not in  Training Category  Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add QB Category  detail or not in  QB  Category  Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add QB  detail or not in  QB Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add storage Category  detail or not in Storage category  Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add sample  storage   detail or not in sample Storage  Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Instrument category   detail or not in Instrument category  Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Project Type  detail or not in Project Type Screen</t>
   </si>
   <si>
     <t>PF038</t>
@@ -626,14 +650,14 @@
     <t>PF040</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add Supplier Category detail or not to the Supplier Category in Supplier Screen</t>
+  </si>
+  <si>
     <t>Supplier = []
 Supplier Category =[]</t>
   </si>
   <si>
     <t>PF041</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Supplier Category detail or not to the Supplier Category in Supplier Screen</t>
   </si>
   <si>
     <t>Check Whether, Able to Add material Category detail or not to the material Category in Supplier Screen</t>
@@ -784,6 +808,9 @@
     <t>PF052</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add Parameter detail or not in Parameter Tab to the Test Master Screen</t>
+  </si>
+  <si>
     <t>Parameter Name = [];
 Parameter Abbreviation = [];
 Parameter Type = [];
@@ -796,17 +823,14 @@
     <t>PF053</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add Section detail or not to the Section Tab  in Test master Screen</t>
+  </si>
+  <si>
     <t>Test Master = [];
 Section  =[];</t>
   </si>
   <si>
     <t>PF054</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Parameter detail or not in Parameter Tab to the Test Master Screen</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Section detail or not to the Section Tab  in Test master Screen</t>
   </si>
   <si>
     <t>Check Whether, Able to Add Method detail or not to the Method Tab  in Test master Screen</t>
@@ -1047,23 +1071,23 @@
     <t>PF073</t>
   </si>
   <si>
+    <t>Check Whether, Able to Add Maintainance  details   or not  in Maintainance  Tab to the Instrument    Screen</t>
+  </si>
+  <si>
     <t>Instrument ID = [];
 Last Maintainance  Date = [];
 Due Date = [];
 Status = [];</t>
   </si>
   <si>
-    <t>Check Whether, Able to Add Maintainance  details   or not  in Maintainance  Tab to the Instrument    Screen</t>
-  </si>
-  <si>
     <t>PF074</t>
+  </si>
+  <si>
+    <t>Check Whether, Able to Add Maintainance  File details   or not  in Maintainance File Tab to the Instrument    Screen</t>
   </si>
   <si>
     <t>Maintainance File name = [];
 Maintainance Description = [];</t>
-  </si>
-  <si>
-    <t>Check Whether, Able to Add Maintainance  File details   or not  in Maintainance File Tab to the Instrument    Screen</t>
   </si>
   <si>
     <t>PF075</t>
@@ -1122,19 +1146,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1150,11 +1173,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1163,12 +1337,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1191,48 +1551,343 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1494,1148 +2149,1149 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.85546875" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.7090909090909" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="109.854545454545" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.4272727272727" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A2" s="8">
+    <row r="2" ht="24.95" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="8">
+    <row r="3" ht="29" spans="1:4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" ht="35.1" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A5" s="8">
+    <row r="5" ht="41.25" customHeight="1" spans="1:4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="30.75" customHeight="1" spans="1:4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="33.75" customHeight="1" spans="1:4">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.75" customHeight="1">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="70.5" customHeight="1" spans="1:4">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" customHeight="1" spans="1:4">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="80.25" customHeight="1" spans="1:4">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="172.5" customHeight="1" spans="1:4">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="99" customHeight="1" spans="1:4">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="37.5" customHeight="1" spans="1:4">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" customHeight="1" spans="1:4">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="49.5" customHeight="1" spans="1:4">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="48" customHeight="1" spans="1:4">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="46.5" customHeight="1" spans="1:4">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="39.75" customHeight="1" spans="1:4">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="33.75" customHeight="1" spans="1:4">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" ht="41.25" customHeight="1" spans="1:4">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" ht="35.25" customHeight="1" spans="1:4">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" ht="36" customHeight="1" spans="1:4">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" ht="45" customHeight="1" spans="1:4">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" ht="36" customHeight="1" spans="1:4">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" ht="33" customHeight="1" spans="1:4">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" ht="33" customHeight="1" spans="1:4">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" ht="51" customHeight="1" spans="1:4">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="B28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" ht="81" customHeight="1" spans="1:4">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" ht="39.75" customHeight="1" spans="1:4">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="B31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="37.5" customHeight="1" spans="1:4">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="80.25" customHeight="1">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:4">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="79.5" customHeight="1" spans="1:4">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="B34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="172.5" customHeight="1">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="92.25" customHeight="1" spans="1:4">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:4">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="252" customHeight="1" spans="1:4">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="101.25" customHeight="1" spans="1:4">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="48" customHeight="1" spans="1:4">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="39.75" customHeight="1" spans="1:4">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="99" customHeight="1">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="B44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="179.25" customHeight="1" spans="1:4">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="7" t="s">
+    </row>
+    <row r="46" s="2" customFormat="1" ht="102" customHeight="1" spans="1:4">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="D46" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="47" s="2" customFormat="1" ht="43.5" customHeight="1" spans="1:4">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="197.25" customHeight="1" spans="1:4">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="318" customHeight="1" spans="1:4">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="48.75" customHeight="1" spans="1:4">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="56.25" customHeight="1" spans="1:4">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="274.5" customHeight="1" spans="1:4">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="110.25" customHeight="1" spans="1:4">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="42.75" customHeight="1" spans="1:4">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="39.75" customHeight="1" spans="1:4">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="44.25" customHeight="1" spans="1:4">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="45.75" customHeight="1" spans="1:4">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B57" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="115.5" customHeight="1" spans="1:4">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="46.5" customHeight="1">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B58" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="57.75" customHeight="1" spans="1:4">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="B59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="70.5" customHeight="1" spans="1:4">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="54.75" customHeight="1" spans="1:4">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="153" customHeight="1" spans="1:4">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="106.5" customHeight="1" spans="1:4">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="53.25" customHeight="1" spans="1:4">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="48" customHeight="1" spans="1:4">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="136.5" customHeight="1" spans="1:4">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="45" customHeight="1" spans="1:4">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="46.5" customHeight="1" spans="1:4">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="306" customHeight="1" spans="1:4">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="72.75" customHeight="1" spans="1:4">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B70" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B71" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="68.25" customHeight="1" spans="1:4">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="36" customHeight="1">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B72" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" customHeight="1">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="36" customHeight="1">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="B73" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="63.75" customHeight="1" spans="1:4">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="B74" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="B75" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="98.25" customHeight="1" spans="1:4">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="33" customHeight="1">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="B76" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="42.75" customHeight="1" spans="1:4">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B77" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="77.25" customHeight="1" spans="1:4">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="41.25" customHeight="1" spans="1:4">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="41.25" customHeight="1" spans="1:4">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="33" customHeight="1">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="51" customHeight="1">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="81" customHeight="1">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="36.75" customHeight="1">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="6" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" ht="51" customHeight="1">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" ht="252" customHeight="1">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" ht="101.25" customHeight="1">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="6" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" ht="179.25" customHeight="1">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="6" customFormat="1" ht="102" customHeight="1">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="6" customFormat="1" ht="197.25" customHeight="1">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="6" customFormat="1" ht="318" customHeight="1">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="6" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="6" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="6" customFormat="1" ht="274.5" customHeight="1">
-      <c r="A52" s="8">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="6" customFormat="1" ht="110.25" customHeight="1">
-      <c r="A53" s="8">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="6" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="6" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A56" s="8">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="6" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="6" customFormat="1" ht="115.5" customHeight="1">
-      <c r="A58" s="8">
-        <v>57</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="6" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A59" s="8">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A60" s="8">
-        <v>59</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="6" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="6" customFormat="1" ht="153" customHeight="1">
-      <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="6" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A63" s="8">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="6" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A64" s="8">
-        <v>63</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A65" s="8">
-        <v>64</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="6" customFormat="1" ht="136.5" customHeight="1">
-      <c r="A66" s="8">
-        <v>65</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1">
-      <c r="A67" s="8">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A68" s="8">
-        <v>67</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="6" customFormat="1" ht="306" customHeight="1">
-      <c r="A69" s="8">
-        <v>68</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A70" s="8">
-        <v>69</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A71" s="8">
-        <v>70</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A72" s="8">
-        <v>71</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="6" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A74" s="8">
-        <v>73</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="6" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A76" s="8">
-        <v>75</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="6" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A77" s="8">
-        <v>76</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="6" customFormat="1" ht="77.25" customHeight="1">
-      <c r="A78" s="8">
-        <v>77</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="6" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A79" s="8">
-        <v>78</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="6" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A80" s="8">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="10" t="s">
         <v>235</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>